--- a/data/raw/03.1b_edited-species-seeded2_corrected-seeded-in-mix_subplot.xlsx
+++ b/data/raw/03.1b_edited-species-seeded2_corrected-seeded-in-mix_subplot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:40009_{28A3A110-A06D-4DF3-ACB9-0ADAC0A6265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30E44462-4012-487C-9113-C227F0EACFA2}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:40009_{28A3A110-A06D-4DF3-ACB9-0ADAC0A6265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A90705F-9890-495B-9BA2-76797B0FE745}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="130">
   <si>
     <t>Site</t>
   </si>
@@ -398,6 +398,18 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>ARPUP6</t>
+  </si>
+  <si>
+    <t>SPAMA</t>
+  </si>
+  <si>
+    <t>S-PASM</t>
+  </si>
+  <si>
+    <t>S-HEBO</t>
   </si>
 </sst>
 </file>
@@ -893,10 +905,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1051,10 +1064,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1354,11 +1363,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J164"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K103" sqref="K103"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1452,7 +1461,7 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
@@ -4103,7 +4112,7 @@
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="E86" t="s">
         <v>79</v>
@@ -4775,7 +4784,7 @@
         <v>37</v>
       </c>
       <c r="D107" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="E107" t="s">
         <v>90</v>
@@ -4839,7 +4848,7 @@
         <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="E109" t="s">
         <v>79</v>
@@ -5895,7 +5904,7 @@
         <v>32</v>
       </c>
       <c r="D142" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="E142" t="s">
         <v>54</v>
@@ -6247,7 +6256,7 @@
         <v>32</v>
       </c>
       <c r="D153" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="E153" t="s">
         <v>54</v>
@@ -6407,7 +6416,7 @@
         <v>37</v>
       </c>
       <c r="D158" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="E158" t="s">
         <v>46</v>
@@ -6436,16 +6445,16 @@
         <v>122</v>
       </c>
       <c r="C159" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D159" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E159" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F159" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="G159" t="s">
         <v>6</v>
@@ -6467,16 +6476,16 @@
       <c r="B160" t="s">
         <v>122</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="C160" t="s">
+        <v>32</v>
+      </c>
+      <c r="D160" t="s">
         <v>73</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E160" t="s">
         <v>73</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F160" t="s">
         <v>74</v>
       </c>
       <c r="G160" t="s">
@@ -6488,8 +6497,8 @@
       <c r="I160" t="s">
         <v>16</v>
       </c>
-      <c r="J160" s="1" t="s">
-        <v>125</v>
+      <c r="J160" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -6499,17 +6508,17 @@
       <c r="B161" t="s">
         <v>122</v>
       </c>
-      <c r="C161" t="s">
-        <v>37</v>
-      </c>
-      <c r="D161" t="s">
-        <v>48</v>
-      </c>
-      <c r="E161" t="s">
-        <v>48</v>
-      </c>
-      <c r="F161" t="s">
-        <v>49</v>
+      <c r="C161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="G161" t="s">
         <v>6</v>
@@ -6518,10 +6527,10 @@
         <v>24</v>
       </c>
       <c r="I161" t="s">
-        <v>25</v>
-      </c>
-      <c r="J161" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -6535,13 +6544,13 @@
         <v>37</v>
       </c>
       <c r="D162" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E162" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F162" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G162" t="s">
         <v>6</v>
@@ -6564,16 +6573,16 @@
         <v>122</v>
       </c>
       <c r="C163" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D163" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E163" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F163" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G163" t="s">
         <v>6</v>
@@ -6582,7 +6591,7 @@
         <v>24</v>
       </c>
       <c r="I163" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J163" t="s">
         <v>17</v>
@@ -6599,24 +6608,88 @@
         <v>32</v>
       </c>
       <c r="D164" t="s">
+        <v>52</v>
+      </c>
+      <c r="E164" t="s">
+        <v>52</v>
+      </c>
+      <c r="F164" t="s">
+        <v>53</v>
+      </c>
+      <c r="G164" t="s">
+        <v>6</v>
+      </c>
+      <c r="H164" t="s">
+        <v>24</v>
+      </c>
+      <c r="I164" t="s">
+        <v>16</v>
+      </c>
+      <c r="J164" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>124</v>
+      </c>
+      <c r="B165" t="s">
+        <v>122</v>
+      </c>
+      <c r="C165" t="s">
+        <v>32</v>
+      </c>
+      <c r="D165" t="s">
+        <v>128</v>
+      </c>
+      <c r="E165" t="s">
         <v>54</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F165" t="s">
+        <v>55</v>
+      </c>
+      <c r="G165" t="s">
+        <v>6</v>
+      </c>
+      <c r="H165" t="s">
+        <v>24</v>
+      </c>
+      <c r="I165" t="s">
+        <v>25</v>
+      </c>
+      <c r="J165" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>124</v>
+      </c>
+      <c r="B166" t="s">
+        <v>122</v>
+      </c>
+      <c r="C166" t="s">
+        <v>32</v>
+      </c>
+      <c r="D166" t="s">
         <v>54</v>
       </c>
-      <c r="F164" t="s">
+      <c r="E166" t="s">
+        <v>54</v>
+      </c>
+      <c r="F166" t="s">
         <v>55</v>
       </c>
-      <c r="G164" t="s">
-        <v>6</v>
-      </c>
-      <c r="H164" t="s">
-        <v>24</v>
-      </c>
-      <c r="I164" t="s">
+      <c r="G166" t="s">
+        <v>6</v>
+      </c>
+      <c r="H166" t="s">
+        <v>24</v>
+      </c>
+      <c r="I166" t="s">
         <v>25</v>
       </c>
-      <c r="J164" t="s">
+      <c r="J166" t="s">
         <v>17</v>
       </c>
     </row>

--- a/data/raw/03.1b_edited-species-seeded2_corrected-seeded-in-mix_subplot.xlsx
+++ b/data/raw/03.1b_edited-species-seeded2_corrected-seeded-in-mix_subplot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:40009_{28A3A110-A06D-4DF3-ACB9-0ADAC0A6265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A90705F-9890-495B-9BA2-76797B0FE745}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:40009_{28A3A110-A06D-4DF3-ACB9-0ADAC0A6265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A7B0641-FD0A-49CB-9BC3-4BFCFFF62375}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -905,11 +905,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1044,9 +1043,42 @@
           <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Yellow highlighting indicates SpeciesSeeded value was changed. Usually descrepancies are because the PlotMix column is conflicting (species weren't included in both warm and cool mixes, so there can only be one for any of them per site).</a:t>
+            <a:t>Yellow highlighting indicates SpeciesSeeded value was changed. Usually </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>discrepancies</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> are because the PlotMix column is conflicting (species weren't included in both warm and cool mixes, so there can only be one for any of them per site).</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1366,7 +1398,7 @@
   <dimension ref="A1:J166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
@@ -1461,7 +1493,7 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
